--- a/baseDesign/基本設計/ER図.xlsx
+++ b/baseDesign/基本設計/ER図.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qijinghong/Documents/基本設計書-天時情報システム/基本設計/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qijinghong/Documents/tenji-sys/baseDesign/基本設計/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1446A4D6-4832-7A4B-84B8-851EB7CB5DAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56078EA3-589A-9342-89A8-46DA8C9B3C67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5640" yWindow="620" windowWidth="28300" windowHeight="17040" xr2:uid="{6D3917E6-F366-2B40-B6ED-2C5E03DB58CB}"/>
+    <workbookView xWindow="860" yWindow="800" windowWidth="28800" windowHeight="17460" xr2:uid="{6D3917E6-F366-2B40-B6ED-2C5E03DB58CB}"/>
   </bookViews>
   <sheets>
     <sheet name="ER" sheetId="1" r:id="rId1"/>
+    <sheet name="社員関連データサンプル" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,9 +31,734 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="122">
+  <si>
+    <r>
+      <t>社員</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>姓</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>社員</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>名</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>フリガナ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>セイ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>フリガナ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>メイ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ロマジ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>姓</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ロマジ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>名</t>
+    </r>
+  </si>
+  <si>
+    <t>性別</t>
+  </si>
+  <si>
+    <t>国</t>
+  </si>
+  <si>
+    <t>生年月日</t>
+  </si>
+  <si>
+    <t>年齢</t>
+  </si>
+  <si>
+    <t>来日年月</t>
+  </si>
+  <si>
+    <t>入社年月日</t>
+  </si>
+  <si>
+    <t>実務年数</t>
+  </si>
+  <si>
+    <t>雇用形態</t>
+  </si>
+  <si>
+    <r>
+      <t>連絡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tel</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>社内</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Mail</t>
+    </r>
+  </si>
+  <si>
+    <t>作成日時</t>
+  </si>
+  <si>
+    <t>作成者</t>
+  </si>
+  <si>
+    <t>更新日時</t>
+  </si>
+  <si>
+    <t>更新者</t>
+  </si>
+  <si>
+    <t>同期日時</t>
+  </si>
+  <si>
+    <t>社員ID</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">シャイン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員基本マスタ</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">シャイン </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">キホン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員スキルマスタ</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">シャイン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員履歴書基本マスタ</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">シャイン </t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t xml:space="preserve">リレキショ </t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">キホン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員履歴詳細</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">シャイン </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">リレキ </t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">ショウサイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スキルマスタ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員ID</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">シャイン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スキルID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グループID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>経験状況</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ケイケン </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">ジョウキョウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グループ名前</t>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">ナマエ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スキル名前</t>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">ナマエ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外国籍区分</t>
+  </si>
+  <si>
+    <t>最寄り駅</t>
+  </si>
+  <si>
+    <t>卒業年月</t>
+  </si>
+  <si>
+    <t>学校名</t>
+  </si>
+  <si>
+    <t>専門</t>
+  </si>
+  <si>
+    <t>学位</t>
+  </si>
+  <si>
+    <t>日本語レベル</t>
+  </si>
+  <si>
+    <t>英語レベル</t>
+  </si>
+  <si>
+    <t>韓国語レベル</t>
+  </si>
+  <si>
+    <t>資格取得</t>
+  </si>
+  <si>
+    <t>得意言語</t>
+  </si>
+  <si>
+    <t>得意業種</t>
+  </si>
+  <si>
+    <r>
+      <t>自己</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>PR</t>
+    </r>
+  </si>
+  <si>
+    <t>プロジェクト名</t>
+  </si>
+  <si>
+    <t>プロジェクト概要</t>
+  </si>
+  <si>
+    <r>
+      <t>業種</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>CD</t>
+    </r>
+  </si>
+  <si>
+    <t>開発場所</t>
+  </si>
+  <si>
+    <t>担当作業</t>
+  </si>
+  <si>
+    <t>開始年月</t>
+  </si>
+  <si>
+    <t>終了年月</t>
+  </si>
+  <si>
+    <t>作業期間</t>
+  </si>
+  <si>
+    <t>備考</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>言語</t>
+  </si>
+  <si>
+    <t>フレームワーク</t>
+  </si>
+  <si>
+    <t>DB</t>
+  </si>
+  <si>
+    <t>その他</t>
+  </si>
+  <si>
+    <t>役割区分</t>
+  </si>
+  <si>
+    <t>管理人数</t>
+  </si>
+  <si>
+    <t>要件定義</t>
+  </si>
+  <si>
+    <t>基本設計</t>
+  </si>
+  <si>
+    <t>詳細設計</t>
+  </si>
+  <si>
+    <t>製造</t>
+  </si>
+  <si>
+    <t>単体テスト</t>
+  </si>
+  <si>
+    <t>結合テスト</t>
+  </si>
+  <si>
+    <t>総合テスト</t>
+  </si>
+  <si>
+    <t>運用・保守</t>
+  </si>
+  <si>
+    <t>履歴番号</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">リレキ </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">バンゴウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TJ0001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天時</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">テン </t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t xml:space="preserve">ジカン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>花子</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ハナコ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テンジ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハナコ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TENJI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HANAKO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">オンナ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日本</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ニホン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>正社員</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">セイシャイン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>03-5913-7230</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tenjihnk02@ten-ji.co.jp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天時　人事</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">テン </t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t xml:space="preserve">ジカン </t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">ジンジ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TJ0012</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TJ0048</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>太郎</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">タロウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タロウ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TAROU</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">オトコ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>二郎</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ジロウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JIROU</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジロウ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>個人事業主</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">コジン </t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t xml:space="preserve">ジギョウシュ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>002</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>003</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mac</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Linux</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Windows</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Unit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>言語</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ゲンゴ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>言語</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ゲンゴ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C#</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SQLServer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Oracle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>004</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フレームワーク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Struts</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Intra-mart</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その他</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hadoop</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>◎</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>◯</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中国</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">チュウゴク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>韓国</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">カンコク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外国籍</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ガイコク </t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t xml:space="preserve">セキ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新宿</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">シンジュク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -48,16 +774,62 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -65,18 +837,104 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -104,8 +962,8 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>253999</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -121,9 +979,9 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="533400" y="1231900"/>
-          <a:ext cx="2400300" cy="9067800"/>
+          <a:ext cx="2400300" cy="7912099"/>
           <a:chOff x="342900" y="-254000"/>
-          <a:chExt cx="2400300" cy="7466608"/>
+          <a:chExt cx="2400300" cy="6514981"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -208,7 +1066,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="342900" y="850900"/>
-            <a:ext cx="2387600" cy="6361708"/>
+            <a:ext cx="2387600" cy="5410081"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -452,6 +1310,22 @@
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:rPr>
+              <a:t>国</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>生年月日</a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
@@ -468,7 +1342,23 @@
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>所属</a:t>
+              <a:t>年齢</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>来日年月</a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
               <a:solidFill>
@@ -500,7 +1390,7 @@
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>卒業年月</a:t>
+              <a:t>実務年数</a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
               <a:solidFill>
@@ -517,54 +1407,6 @@
                 </a:solidFill>
               </a:rPr>
               <a:t>雇用形態</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>健康保険加入状況</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>厚生年金加入状況</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>雇用保険加入状況</a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
               <a:solidFill>
@@ -753,7 +1595,7 @@
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>社員マスタ</a:t>
+              <a:t>社員基本マスタ</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -763,93 +1605,2560 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="角丸四角形吹き出し 5">
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="7" name="グループ化 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB2F76D6-5CC0-054C-B998-F0F3208E2D1F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F061ADB8-9565-744A-A7E7-D6DA9DEA1864}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="9613900" y="393700"/>
+          <a:ext cx="2400300" cy="4038600"/>
+          <a:chOff x="342900" y="-254000"/>
+          <a:chExt cx="2400300" cy="3325464"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="正方形/長方形 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B28CD3A5-E36C-B94E-BB68-D68900720F98}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="342900" y="254000"/>
+            <a:ext cx="2387600" cy="924669"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>社員</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>ID                                   PK</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>グループ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>ID</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>                          </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>PK</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>スキル</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>ID</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>                               PK</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="正方形/長方形 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F6163C8-CD72-164D-A637-9B69839104AA}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="342900" y="1178668"/>
+            <a:ext cx="2387600" cy="1892796"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>経験状況</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>作成日時</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>作成者</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>更新日時</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>更新者</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>同期日時</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="正方形/長方形 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47645C9D-E61F-C249-BF70-EE10F33E4E0F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="355600" y="-254000"/>
+            <a:ext cx="2387600" cy="444500"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="b"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>社員スキルマスタ</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="11" name="グループ化 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5948C180-E5BA-8A47-8C0F-BD6575A0757B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="12903200" y="965200"/>
+          <a:ext cx="2400300" cy="3606800"/>
+          <a:chOff x="342900" y="-254000"/>
+          <a:chExt cx="2400300" cy="2969911"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="12" name="正方形/長方形 11">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5B0C8BD-1863-F04C-9842-227B298C9230}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="342900" y="254000"/>
+            <a:ext cx="2387600" cy="596900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>グループ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>ID</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>                           </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>PK</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>スキル</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>ID</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>                               PK</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="13" name="正方形/長方形 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{520A348C-077A-4342-8441-D68752FEDEEA}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="342900" y="850900"/>
+            <a:ext cx="2387600" cy="1865011"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>グループ名前</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>スキル名前</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>作成日時</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>作成者</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>更新日時</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>更新者</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="14" name="正方形/長方形 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15DE218B-E81D-C248-A41B-77EFF707CADC}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="355600" y="-254000"/>
+            <a:ext cx="2387600" cy="444500"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="b"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>スキルマスタ</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="15" name="グループ化 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4899F5B8-E1C5-0744-AF56-2F9B4F16E396}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6743700" y="1981200"/>
+          <a:ext cx="2400300" cy="8813800"/>
+          <a:chOff x="342900" y="-254000"/>
+          <a:chExt cx="2400300" cy="7257460"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="16" name="正方形/長方形 15">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E8100F3-3E0B-8C49-8BAE-89C21CEF131F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="342900" y="254000"/>
+            <a:ext cx="2387600" cy="924669"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>社員</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>ID                                   PK</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>履歴番号　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>                          </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>PK</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="17" name="正方形/長方形 16">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{465933B5-4AF9-B144-907A-63E314547C99}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="342900" y="1178668"/>
+            <a:ext cx="2387600" cy="5824792"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>プロジェクト名</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>プロジェクト概要</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>業種</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>CD</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>開発場所</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>担当作業</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>開始年月</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>終了年月</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>作業期間</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>備考</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>OS</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>言語</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>フレームワーク</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>DB</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>その他</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>役割区分</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>管理人数</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>要件定義</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>基本設計</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>詳細設計</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>製造</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>単体テスト</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>結合テスト</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>総合テスト</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>運用・保守</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>作成日時</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>作成者</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>更新日時</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>更新者</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>同期日時</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="18" name="正方形/長方形 17">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD7DDD03-384D-7C47-B470-5705F84E05B5}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="355600" y="-254000"/>
+            <a:ext cx="2387600" cy="444500"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="b"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>社員履歴詳細</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>63502</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="19" name="グループ化 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66466AD0-41E1-F343-8403-38D79453F5A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="9601200" y="4838700"/>
+          <a:ext cx="2400300" cy="4368802"/>
+          <a:chOff x="342900" y="-254000"/>
+          <a:chExt cx="2400300" cy="3597358"/>
+        </a:xfrm>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="20" name="正方形/長方形 19">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAFD7F39-B581-A84D-949C-C6BC0795B1EC}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="342900" y="253999"/>
+            <a:ext cx="2387600" cy="1248849"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>社員</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>ID                                   PK</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>履歴番号　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>                          </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>PK</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>グループ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>ID</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>                           </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>PK</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>スキル</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>ID</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>                               PK</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="21" name="正方形/長方形 20">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B35E8B2-B8A7-ED4A-A1E2-3BF1C9A6EEB0}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="342900" y="1478347"/>
+            <a:ext cx="2387600" cy="1865011"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>作成日時</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>作成者</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>更新日時</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>更新者</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>同期日時</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="22" name="正方形/長方形 21">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8B14F90-1206-B647-B5D2-2932B66F41CC}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="355600" y="-254000"/>
+            <a:ext cx="2387600" cy="444500"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="b"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>社員履歴</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>PG</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>詳細</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="23" name="グループ化 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{999B8C43-6041-EF47-923A-D2FDACEA0003}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3568700" y="2286000"/>
+          <a:ext cx="2400300" cy="5626100"/>
+          <a:chOff x="342900" y="-254000"/>
+          <a:chExt cx="2400300" cy="4632643"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="24" name="正方形/長方形 23">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFFCA973-F967-F440-8D98-5724AF7C0126}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="342900" y="254000"/>
+            <a:ext cx="2387600" cy="596900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>社員</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>ID                                   PK</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="25" name="正方形/長方形 24">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C19FF160-152B-9545-969E-5C3029552608}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="342900" y="850900"/>
+            <a:ext cx="2387600" cy="3527743"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>外国籍区分</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>最寄り駅</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>来日年月</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>卒業年月</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>学校名</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>専門</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>学位</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>日本語レベル</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>英語レベル</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>韓国語レベル</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>資格取得</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>得意言語</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>得意業種</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>自己</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>PR</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>作成日時</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>作成者</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>更新日時</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>更新者</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>同期日時</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="26" name="正方形/長方形 25">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{425D5FC0-60AD-D842-96E6-E625CD016092}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="355600" y="-254000"/>
+            <a:ext cx="2387600" cy="444500"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="b"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>社員履歴書基本マスタ</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>48120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>166591</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="曲線コネクタ 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B669A102-6CB6-B148-8636-742D16786BC5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="3"/>
+          <a:endCxn id="12" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="11010900"/>
-          <a:ext cx="2667000" cy="1308100"/>
+          <a:off x="12001500" y="1572120"/>
+          <a:ext cx="901700" cy="372471"/>
         </a:xfrm>
-        <a:prstGeom prst="wedgeRoundRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -20058"/>
-            <a:gd name="adj2" fmla="val -103253"/>
-            <a:gd name="adj3" fmla="val 16667"/>
-          </a:avLst>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="oval"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
         </a:lnRef>
-        <a:fillRef idx="1">
+        <a:fillRef idx="0">
           <a:schemeClr val="accent1"/>
         </a:fillRef>
         <a:effectRef idx="0">
           <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="tx1"/>
         </a:fontRef>
       </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>年齢</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>勤続年数</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>実務年数</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>を基本情報から計算で出す</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>48119</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>179290</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="曲線コネクタ 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{629338D6-5369-094E-BDE3-739698F34D71}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="1"/>
+          <a:endCxn id="2" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="2921000" y="1572119"/>
+          <a:ext cx="6692900" cy="639171"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="oval"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>111619</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>217390</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="曲線コネクタ 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B06ED85-60BF-ED41-84BE-2E71D087CF56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="16" idx="1"/>
+          <a:endCxn id="24" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="5956300" y="3159619"/>
+          <a:ext cx="787400" cy="105771"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="oval"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>179291</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>217391</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="曲線コネクタ 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55C4838C-8053-3C49-9921-DC41314345A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="24" idx="1"/>
+          <a:endCxn id="2" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="2921000" y="2211291"/>
+          <a:ext cx="647700" cy="1054100"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="oval"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1154,8 +4463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCC1E1E5-5450-C540-B9DF-2DF50D6D9452}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.85546875" defaultRowHeight="20"/>
@@ -1164,4 +4473,1262 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B870ADAC-CA52-AC42-B64F-2CCA8C43CC77}">
+  <dimension ref="B2:AF67"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="5.140625" defaultRowHeight="20"/>
+  <cols>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14" customWidth="1"/>
+    <col min="22" max="22" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="27" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:23" ht="31">
+      <c r="B2" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="2:23" ht="24">
+      <c r="B3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="W3" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="2:23" ht="24">
+      <c r="B4" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="K4" s="8">
+        <v>19901010</v>
+      </c>
+      <c r="L4" s="8">
+        <v>30</v>
+      </c>
+      <c r="M4" s="8">
+        <v>200802</v>
+      </c>
+      <c r="N4" s="8">
+        <v>20080301</v>
+      </c>
+      <c r="O4" s="8">
+        <v>6</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="R4" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="S4" s="10">
+        <v>39508.389918981484</v>
+      </c>
+      <c r="T4" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="U4" s="10">
+        <v>39508.389918981484</v>
+      </c>
+      <c r="V4" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="W4" s="10">
+        <v>44228.014918981484</v>
+      </c>
+    </row>
+    <row r="5" spans="2:23" ht="24">
+      <c r="B5" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="K5" s="8">
+        <v>19805010</v>
+      </c>
+      <c r="L5" s="8">
+        <v>40</v>
+      </c>
+      <c r="M5" s="8">
+        <v>200802</v>
+      </c>
+      <c r="N5" s="8">
+        <v>20080301</v>
+      </c>
+      <c r="O5" s="8">
+        <v>15</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="R5" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="S5" s="10">
+        <v>39508.389918981484</v>
+      </c>
+      <c r="T5" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="U5" s="10">
+        <v>39508.389918981484</v>
+      </c>
+      <c r="V5" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="W5" s="10">
+        <v>44228.014918981484</v>
+      </c>
+    </row>
+    <row r="6" spans="2:23" ht="24">
+      <c r="B6" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="K6" s="8">
+        <v>19901010</v>
+      </c>
+      <c r="L6" s="8">
+        <v>30</v>
+      </c>
+      <c r="M6" s="8">
+        <v>200802</v>
+      </c>
+      <c r="N6" s="8">
+        <v>20080301</v>
+      </c>
+      <c r="O6" s="8">
+        <v>6</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q6" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="R6" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="S6" s="10">
+        <v>39508.389918981484</v>
+      </c>
+      <c r="T6" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="U6" s="10">
+        <v>39508.389918981484</v>
+      </c>
+      <c r="V6" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="W6" s="10">
+        <v>44228.014918981484</v>
+      </c>
+    </row>
+    <row r="7" spans="2:23" ht="24">
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="2:23" ht="31">
+      <c r="B8" s="18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="2:23">
+      <c r="B9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23" ht="24">
+      <c r="B10" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="2:23" ht="24">
+      <c r="B11" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="2:23" ht="24">
+      <c r="B12" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23" ht="24">
+      <c r="B13" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="2:23" ht="24">
+      <c r="B14" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="2:23" ht="24">
+      <c r="B15" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="2:23" ht="24">
+      <c r="B16" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="2:26" ht="24">
+      <c r="B17" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="2:26" ht="24">
+      <c r="B18" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="2:26" ht="24">
+      <c r="B19" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="2:26" ht="24">
+      <c r="B20" s="11">
+        <v>111</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="2:26" ht="24">
+      <c r="B21" s="3"/>
+      <c r="C21" s="4"/>
+    </row>
+    <row r="22" spans="2:26" ht="24">
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="2:26" ht="31">
+      <c r="B23" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="2:26" ht="24">
+      <c r="B24" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="2:26" ht="24">
+      <c r="B25" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="F25" s="10">
+        <v>39508.389918981484</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="H25" s="10">
+        <v>39508.389918981484</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="J25" s="10">
+        <v>44228.014918981484</v>
+      </c>
+    </row>
+    <row r="26" spans="2:26" ht="24">
+      <c r="B26" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="F26" s="10">
+        <v>39508.389918981484</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="H26" s="10">
+        <v>39508.389918981484</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="J26" s="10">
+        <v>44228.014918981484</v>
+      </c>
+    </row>
+    <row r="27" spans="2:26" ht="24">
+      <c r="B27" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="F27" s="10">
+        <v>39508.389918981484</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="H27" s="10">
+        <v>39508.389918981484</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="J27" s="10">
+        <v>44228.014918981484</v>
+      </c>
+    </row>
+    <row r="28" spans="2:26" ht="24">
+      <c r="B28" s="7"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+    </row>
+    <row r="29" spans="2:26" ht="24">
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="2:26" ht="31">
+      <c r="B30" s="18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="2:26" ht="24">
+      <c r="B31" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I31" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="J31" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="K31" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="L31" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="M31" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="N31" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="O31" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="P31" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q31" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="R31" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="S31" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="T31" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="U31" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="V31" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="W31" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="X31" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y31" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z31" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="2:26" ht="24">
+      <c r="B32" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E32" s="8">
+        <v>200802</v>
+      </c>
+      <c r="F32" s="8"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="8"/>
+      <c r="S32" s="8"/>
+      <c r="T32" s="8"/>
+      <c r="U32" s="8"/>
+      <c r="V32" s="8"/>
+      <c r="W32" s="8"/>
+      <c r="X32" s="8"/>
+      <c r="Y32" s="8"/>
+      <c r="Z32" s="8"/>
+    </row>
+    <row r="33" spans="2:32" ht="24">
+      <c r="B33" s="7"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="8"/>
+      <c r="T33" s="8"/>
+      <c r="U33" s="8"/>
+      <c r="V33" s="8"/>
+      <c r="W33" s="8"/>
+      <c r="X33" s="8"/>
+      <c r="Y33" s="8"/>
+      <c r="Z33" s="8"/>
+    </row>
+    <row r="34" spans="2:32" ht="24">
+      <c r="B34" s="7"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="8"/>
+      <c r="R34" s="8"/>
+      <c r="S34" s="8"/>
+      <c r="T34" s="8"/>
+      <c r="U34" s="8"/>
+      <c r="V34" s="8"/>
+      <c r="W34" s="8"/>
+      <c r="X34" s="8"/>
+      <c r="Y34" s="8"/>
+      <c r="Z34" s="8"/>
+    </row>
+    <row r="35" spans="2:32" ht="24">
+      <c r="B35" s="7"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="8"/>
+      <c r="R35" s="8"/>
+      <c r="S35" s="8"/>
+      <c r="T35" s="8"/>
+      <c r="U35" s="8"/>
+      <c r="V35" s="8"/>
+      <c r="W35" s="8"/>
+      <c r="X35" s="8"/>
+      <c r="Y35" s="8"/>
+      <c r="Z35" s="8"/>
+    </row>
+    <row r="36" spans="2:32" ht="24">
+      <c r="B36" s="1"/>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="2:32" ht="31">
+      <c r="B37" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="2:32" ht="24">
+      <c r="B38" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G38" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H38" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="I38" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="J38" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="K38" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="L38" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="M38" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="N38" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="O38" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="P38" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q38" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="R38" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="S38" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="T38" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="U38" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="V38" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="W38" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="X38" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y38" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z38" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA38" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB38" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC38" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD38" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE38" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF38" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="2:32" ht="24">
+      <c r="B39" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="8"/>
+      <c r="P39" s="8"/>
+      <c r="Q39" s="8"/>
+      <c r="R39" s="8"/>
+      <c r="S39" s="8"/>
+      <c r="T39" s="8"/>
+      <c r="U39" s="8"/>
+      <c r="V39" s="8"/>
+      <c r="W39" s="8"/>
+      <c r="X39" s="8"/>
+      <c r="Y39" s="8"/>
+      <c r="Z39" s="8"/>
+      <c r="AA39" s="8"/>
+      <c r="AB39" s="8"/>
+      <c r="AC39" s="8"/>
+      <c r="AD39" s="8"/>
+      <c r="AE39" s="8"/>
+      <c r="AF39" s="8"/>
+    </row>
+    <row r="40" spans="2:32" ht="24">
+      <c r="B40" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="8"/>
+      <c r="O40" s="8"/>
+      <c r="P40" s="8"/>
+      <c r="Q40" s="8"/>
+      <c r="R40" s="8"/>
+      <c r="S40" s="8"/>
+      <c r="T40" s="8"/>
+      <c r="U40" s="8"/>
+      <c r="V40" s="8"/>
+      <c r="W40" s="8"/>
+      <c r="X40" s="8"/>
+      <c r="Y40" s="8"/>
+      <c r="Z40" s="8"/>
+      <c r="AA40" s="8"/>
+      <c r="AB40" s="8"/>
+      <c r="AC40" s="8"/>
+      <c r="AD40" s="8"/>
+      <c r="AE40" s="8"/>
+      <c r="AF40" s="8"/>
+    </row>
+    <row r="41" spans="2:32" ht="24">
+      <c r="B41" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="8"/>
+      <c r="O41" s="8"/>
+      <c r="P41" s="8"/>
+      <c r="Q41" s="8"/>
+      <c r="R41" s="8"/>
+      <c r="S41" s="8"/>
+      <c r="T41" s="8"/>
+      <c r="U41" s="8"/>
+      <c r="V41" s="8"/>
+      <c r="W41" s="8"/>
+      <c r="X41" s="8"/>
+      <c r="Y41" s="8"/>
+      <c r="Z41" s="8"/>
+      <c r="AA41" s="8"/>
+      <c r="AB41" s="8"/>
+      <c r="AC41" s="8"/>
+      <c r="AD41" s="8"/>
+      <c r="AE41" s="8"/>
+      <c r="AF41" s="8"/>
+    </row>
+    <row r="42" spans="2:32" ht="24">
+      <c r="B42" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="8"/>
+      <c r="N42" s="8"/>
+      <c r="O42" s="8"/>
+      <c r="P42" s="8"/>
+      <c r="Q42" s="8"/>
+      <c r="R42" s="8"/>
+      <c r="S42" s="8"/>
+      <c r="T42" s="8"/>
+      <c r="U42" s="8"/>
+      <c r="V42" s="8"/>
+      <c r="W42" s="8"/>
+      <c r="X42" s="8"/>
+      <c r="Y42" s="8"/>
+      <c r="Z42" s="8"/>
+      <c r="AA42" s="8"/>
+      <c r="AB42" s="8"/>
+      <c r="AC42" s="8"/>
+      <c r="AD42" s="8"/>
+      <c r="AE42" s="8"/>
+      <c r="AF42" s="8"/>
+    </row>
+    <row r="43" spans="2:32" ht="24">
+      <c r="B43" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="8"/>
+      <c r="O43" s="8"/>
+      <c r="P43" s="8"/>
+      <c r="Q43" s="8"/>
+      <c r="R43" s="8"/>
+      <c r="S43" s="8"/>
+      <c r="T43" s="8"/>
+      <c r="U43" s="8"/>
+      <c r="V43" s="8"/>
+      <c r="W43" s="8"/>
+      <c r="X43" s="8"/>
+      <c r="Y43" s="8"/>
+      <c r="Z43" s="8"/>
+      <c r="AA43" s="8"/>
+      <c r="AB43" s="8"/>
+      <c r="AC43" s="8"/>
+      <c r="AD43" s="8"/>
+      <c r="AE43" s="8"/>
+      <c r="AF43" s="8"/>
+    </row>
+    <row r="44" spans="2:32" ht="24">
+      <c r="B44" s="7"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="8"/>
+      <c r="N44" s="8"/>
+      <c r="O44" s="8"/>
+      <c r="P44" s="8"/>
+      <c r="Q44" s="8"/>
+      <c r="R44" s="8"/>
+      <c r="S44" s="8"/>
+      <c r="T44" s="8"/>
+      <c r="U44" s="8"/>
+      <c r="V44" s="8"/>
+      <c r="W44" s="8"/>
+      <c r="X44" s="8"/>
+      <c r="Y44" s="8"/>
+      <c r="Z44" s="8"/>
+      <c r="AA44" s="8"/>
+      <c r="AB44" s="8"/>
+      <c r="AC44" s="8"/>
+      <c r="AD44" s="8"/>
+      <c r="AE44" s="8"/>
+      <c r="AF44" s="8"/>
+    </row>
+    <row r="45" spans="2:32" ht="24">
+      <c r="B45" s="7"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="8"/>
+      <c r="N45" s="8"/>
+      <c r="O45" s="8"/>
+      <c r="P45" s="8"/>
+      <c r="Q45" s="8"/>
+      <c r="R45" s="8"/>
+      <c r="S45" s="8"/>
+      <c r="T45" s="8"/>
+      <c r="U45" s="8"/>
+      <c r="V45" s="8"/>
+      <c r="W45" s="8"/>
+      <c r="X45" s="8"/>
+      <c r="Y45" s="8"/>
+      <c r="Z45" s="8"/>
+      <c r="AA45" s="8"/>
+      <c r="AB45" s="8"/>
+      <c r="AC45" s="8"/>
+      <c r="AD45" s="8"/>
+      <c r="AE45" s="8"/>
+      <c r="AF45" s="8"/>
+    </row>
+    <row r="46" spans="2:32" ht="24">
+      <c r="B46" s="1"/>
+      <c r="G46" s="1"/>
+    </row>
+    <row r="47" spans="2:32" ht="24">
+      <c r="B47" s="1"/>
+      <c r="G47" s="1"/>
+    </row>
+    <row r="48" spans="2:32" ht="24">
+      <c r="B48" s="2"/>
+      <c r="G48" s="1"/>
+    </row>
+    <row r="49" spans="2:7" ht="24">
+      <c r="B49" s="1"/>
+      <c r="G49" s="1"/>
+    </row>
+    <row r="50" spans="2:7" ht="24">
+      <c r="B50" s="1"/>
+    </row>
+    <row r="51" spans="2:7">
+      <c r="B51" s="2"/>
+    </row>
+    <row r="52" spans="2:7" ht="24">
+      <c r="B52" s="1"/>
+    </row>
+    <row r="53" spans="2:7" ht="24">
+      <c r="B53" s="1"/>
+    </row>
+    <row r="54" spans="2:7" ht="24">
+      <c r="B54" s="1"/>
+    </row>
+    <row r="55" spans="2:7" ht="24">
+      <c r="B55" s="1"/>
+    </row>
+    <row r="56" spans="2:7" ht="24">
+      <c r="B56" s="1"/>
+    </row>
+    <row r="57" spans="2:7" ht="24">
+      <c r="B57" s="1"/>
+    </row>
+    <row r="58" spans="2:7" ht="24">
+      <c r="B58" s="1"/>
+    </row>
+    <row r="59" spans="2:7" ht="24">
+      <c r="B59" s="1"/>
+    </row>
+    <row r="60" spans="2:7" ht="24">
+      <c r="B60" s="1"/>
+    </row>
+    <row r="61" spans="2:7" ht="24">
+      <c r="B61" s="1"/>
+    </row>
+    <row r="62" spans="2:7" ht="24">
+      <c r="B62" s="1"/>
+    </row>
+    <row r="63" spans="2:7" ht="24">
+      <c r="B63" s="1"/>
+    </row>
+    <row r="64" spans="2:7" ht="24">
+      <c r="B64" s="1"/>
+    </row>
+    <row r="65" spans="2:2" ht="24">
+      <c r="B65" s="1"/>
+    </row>
+    <row r="66" spans="2:2" ht="24">
+      <c r="B66" s="1"/>
+    </row>
+    <row r="67" spans="2:2" ht="24">
+      <c r="B67" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="R4" r:id="rId1" xr:uid="{1A7CA1DA-F98A-0C45-8BF2-23E58D84E815}"/>
+    <hyperlink ref="R5" r:id="rId2" xr:uid="{73F91F7D-BD68-7547-AAD3-7EA8DDC47928}"/>
+    <hyperlink ref="R6" r:id="rId3" xr:uid="{B8BE0281-372B-B34B-A924-419DC3635282}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/baseDesign/基本設計/ER図.xlsx
+++ b/baseDesign/基本設計/ER図.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qijinghong/Documents/tenji-sys/baseDesign/基本設計/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56078EA3-589A-9342-89A8-46DA8C9B3C67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6847B49-E813-A749-A891-DD6DF900AEFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="800" windowWidth="28800" windowHeight="17460" xr2:uid="{6D3917E6-F366-2B40-B6ED-2C5E03DB58CB}"/>
+    <workbookView xWindow="2980" yWindow="1300" windowWidth="28800" windowHeight="17460" xr2:uid="{6D3917E6-F366-2B40-B6ED-2C5E03DB58CB}"/>
   </bookViews>
   <sheets>
     <sheet name="ER" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="133">
   <si>
     <r>
       <t>社員</t>
@@ -753,12 +753,68 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>XXXXX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XXX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>N1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>銀行</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ギンコウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XXXXXXXXXXXX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XXXX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XXXXXXXXXXX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>池袋</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">イケブクロ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>八丁堀</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">ハッチョウボリ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>芝公園</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">シバコウエン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -808,6 +864,14 @@
     <font>
       <b/>
       <sz val="18"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="3"/>
@@ -874,7 +938,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -930,6 +994,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1411,6 +1478,38 @@
             <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>所属</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>権限レベル</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:endParaRPr>
           </a:p>
@@ -4463,8 +4562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCC1E1E5-5450-C540-B9DF-2DF50D6D9452}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.85546875" defaultRowHeight="20"/>
@@ -4479,16 +4578,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B870ADAC-CA52-AC42-B64F-2CCA8C43CC77}">
   <dimension ref="B2:AF67"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView showGridLines="0" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="5.140625" defaultRowHeight="20"/>
   <cols>
     <col min="2" max="2" width="11.5703125" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
@@ -4498,19 +4598,19 @@
     <col min="13" max="13" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.5703125" customWidth="1"/>
     <col min="18" max="18" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.42578125" customWidth="1"/>
     <col min="21" max="21" width="14" customWidth="1"/>
     <col min="22" max="22" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="24" max="27" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:23" ht="31">
@@ -4910,7 +5010,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="17" spans="2:26" ht="24">
+    <row r="17" spans="2:21" ht="24">
       <c r="B17" s="11" t="s">
         <v>97</v>
       </c>
@@ -4924,7 +5024,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="2:26" ht="24">
+    <row r="18" spans="2:21" ht="24">
       <c r="B18" s="11" t="s">
         <v>109</v>
       </c>
@@ -4938,7 +5038,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="19" spans="2:26" ht="24">
+    <row r="19" spans="2:21" ht="24">
       <c r="B19" s="11" t="s">
         <v>109</v>
       </c>
@@ -4952,7 +5052,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="2:26" ht="24">
+    <row r="20" spans="2:21" ht="24">
       <c r="B20" s="11">
         <v>111</v>
       </c>
@@ -4966,19 +5066,19 @@
         <v>114</v>
       </c>
     </row>
-    <row r="21" spans="2:26" ht="24">
+    <row r="21" spans="2:21" ht="24">
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
     </row>
-    <row r="22" spans="2:26" ht="24">
+    <row r="22" spans="2:21" ht="24">
       <c r="B22" s="1"/>
     </row>
-    <row r="23" spans="2:26" ht="31">
+    <row r="23" spans="2:21" ht="31">
       <c r="B23" s="18" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="2:26" ht="24">
+    <row r="24" spans="2:21" ht="24">
       <c r="B24" s="13" t="s">
         <v>27</v>
       </c>
@@ -5007,7 +5107,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="2:26" ht="24">
+    <row r="25" spans="2:21" ht="24">
       <c r="B25" s="7" t="s">
         <v>71</v>
       </c>
@@ -5036,7 +5136,7 @@
         <v>44228.014918981484</v>
       </c>
     </row>
-    <row r="26" spans="2:26" ht="24">
+    <row r="26" spans="2:21" ht="24">
       <c r="B26" s="7" t="s">
         <v>71</v>
       </c>
@@ -5065,7 +5165,7 @@
         <v>44228.014918981484</v>
       </c>
     </row>
-    <row r="27" spans="2:26" ht="24">
+    <row r="27" spans="2:21" ht="24">
       <c r="B27" s="7" t="s">
         <v>71</v>
       </c>
@@ -5094,7 +5194,7 @@
         <v>44228.014918981484</v>
       </c>
     </row>
-    <row r="28" spans="2:26" ht="24">
+    <row r="28" spans="2:21" ht="24">
       <c r="B28" s="7"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
@@ -5105,15 +5205,15 @@
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
     </row>
-    <row r="29" spans="2:26" ht="24">
+    <row r="29" spans="2:21" ht="24">
       <c r="B29" s="1"/>
     </row>
-    <row r="30" spans="2:26" ht="31">
+    <row r="30" spans="2:21" ht="31">
       <c r="B30" s="18" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="2:26" ht="24">
+    <row r="31" spans="2:21" ht="24">
       <c r="B31" s="13" t="s">
         <v>27</v>
       </c>
@@ -5174,23 +5274,8 @@
       <c r="U31" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="V31" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="W31" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="X31" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y31" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z31" s="13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="2:26" ht="24">
+    </row>
+    <row r="32" spans="2:21" ht="24">
       <c r="B32" s="7" t="s">
         <v>71</v>
       </c>
@@ -5203,27 +5288,48 @@
       <c r="E32" s="8">
         <v>200802</v>
       </c>
-      <c r="F32" s="8"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
+      <c r="F32" s="8">
+        <v>201407</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>124</v>
+      </c>
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
       <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="8"/>
-      <c r="Q32" s="8"/>
-      <c r="R32" s="8"/>
-      <c r="S32" s="8"/>
-      <c r="T32" s="8"/>
-      <c r="U32" s="8"/>
-      <c r="V32" s="8"/>
-      <c r="W32" s="8"/>
-      <c r="X32" s="8"/>
-      <c r="Y32" s="8"/>
-      <c r="Z32" s="8"/>
+      <c r="N32" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="O32" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="P32" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q32" s="10">
+        <v>39508.389918981484</v>
+      </c>
+      <c r="R32" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="S32" s="10">
+        <v>39508.389918981484</v>
+      </c>
+      <c r="T32" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="U32" s="10">
+        <v>44228.014918981484</v>
+      </c>
     </row>
     <row r="33" spans="2:32" ht="24">
       <c r="B33" s="7"/>
@@ -5246,11 +5352,6 @@
       <c r="S33" s="8"/>
       <c r="T33" s="8"/>
       <c r="U33" s="8"/>
-      <c r="V33" s="8"/>
-      <c r="W33" s="8"/>
-      <c r="X33" s="8"/>
-      <c r="Y33" s="8"/>
-      <c r="Z33" s="8"/>
     </row>
     <row r="34" spans="2:32" ht="24">
       <c r="B34" s="7"/>
@@ -5273,11 +5374,6 @@
       <c r="S34" s="8"/>
       <c r="T34" s="8"/>
       <c r="U34" s="8"/>
-      <c r="V34" s="8"/>
-      <c r="W34" s="8"/>
-      <c r="X34" s="8"/>
-      <c r="Y34" s="8"/>
-      <c r="Z34" s="8"/>
     </row>
     <row r="35" spans="2:32" ht="24">
       <c r="B35" s="7"/>
@@ -5300,11 +5396,6 @@
       <c r="S35" s="8"/>
       <c r="T35" s="8"/>
       <c r="U35" s="8"/>
-      <c r="V35" s="8"/>
-      <c r="W35" s="8"/>
-      <c r="X35" s="8"/>
-      <c r="Y35" s="8"/>
-      <c r="Z35" s="8"/>
     </row>
     <row r="36" spans="2:32" ht="24">
       <c r="B36" s="1"/>
@@ -5415,146 +5506,328 @@
       <c r="B39" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
+      <c r="C39" s="8">
+        <v>1</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="G39" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="I39" s="8">
+        <v>201901</v>
+      </c>
+      <c r="J39" s="8">
+        <v>201912</v>
+      </c>
+      <c r="K39" s="8">
+        <v>11</v>
+      </c>
       <c r="L39" s="8"/>
-      <c r="M39" s="8"/>
-      <c r="N39" s="8"/>
-      <c r="O39" s="8"/>
-      <c r="P39" s="8"/>
+      <c r="M39" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="N39" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="O39" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="P39" s="8" t="s">
+        <v>127</v>
+      </c>
       <c r="Q39" s="8"/>
-      <c r="R39" s="8"/>
-      <c r="S39" s="8"/>
+      <c r="R39" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="S39" s="8">
+        <v>3</v>
+      </c>
       <c r="T39" s="8"/>
       <c r="U39" s="8"/>
-      <c r="V39" s="8"/>
-      <c r="W39" s="8"/>
-      <c r="X39" s="8"/>
+      <c r="V39" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="W39" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="X39" s="8" t="s">
+        <v>117</v>
+      </c>
       <c r="Y39" s="8"/>
       <c r="Z39" s="8"/>
       <c r="AA39" s="8"/>
-      <c r="AB39" s="8"/>
-      <c r="AC39" s="8"/>
-      <c r="AD39" s="8"/>
-      <c r="AE39" s="8"/>
-      <c r="AF39" s="8"/>
+      <c r="AB39" s="10">
+        <v>39508.389918981484</v>
+      </c>
+      <c r="AC39" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD39" s="10">
+        <v>39508.389918981484</v>
+      </c>
+      <c r="AE39" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF39" s="10">
+        <v>44228.014918981484</v>
+      </c>
     </row>
     <row r="40" spans="2:32" ht="24">
       <c r="B40" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
+      <c r="C40" s="8">
+        <v>2</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="G40" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="I40" s="8">
+        <v>202001</v>
+      </c>
+      <c r="J40" s="8">
+        <v>202006</v>
+      </c>
+      <c r="K40" s="8">
+        <v>6</v>
+      </c>
       <c r="L40" s="8"/>
-      <c r="M40" s="8"/>
-      <c r="N40" s="8"/>
-      <c r="O40" s="8"/>
-      <c r="P40" s="8"/>
+      <c r="M40" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="N40" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="O40" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="P40" s="8" t="s">
+        <v>127</v>
+      </c>
       <c r="Q40" s="8"/>
-      <c r="R40" s="8"/>
-      <c r="S40" s="8"/>
+      <c r="R40" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="S40" s="8">
+        <v>3</v>
+      </c>
       <c r="T40" s="8"/>
       <c r="U40" s="8"/>
-      <c r="V40" s="8"/>
-      <c r="W40" s="8"/>
-      <c r="X40" s="8"/>
+      <c r="V40" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="W40" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="X40" s="8" t="s">
+        <v>117</v>
+      </c>
       <c r="Y40" s="8"/>
       <c r="Z40" s="8"/>
       <c r="AA40" s="8"/>
-      <c r="AB40" s="8"/>
-      <c r="AC40" s="8"/>
-      <c r="AD40" s="8"/>
-      <c r="AE40" s="8"/>
-      <c r="AF40" s="8"/>
+      <c r="AB40" s="10">
+        <v>39508.389918981484</v>
+      </c>
+      <c r="AC40" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD40" s="10">
+        <v>39508.389918981484</v>
+      </c>
+      <c r="AE40" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF40" s="10">
+        <v>44228.014918981484</v>
+      </c>
     </row>
     <row r="41" spans="2:32" ht="24">
       <c r="B41" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
+      <c r="C41" s="8">
+        <v>3</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="G41" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="I41" s="8">
+        <v>202006</v>
+      </c>
+      <c r="J41" s="8">
+        <v>202010</v>
+      </c>
+      <c r="K41" s="8">
+        <v>4</v>
+      </c>
       <c r="L41" s="8"/>
-      <c r="M41" s="8"/>
-      <c r="N41" s="8"/>
-      <c r="O41" s="8"/>
-      <c r="P41" s="8"/>
+      <c r="M41" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="N41" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="O41" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="P41" s="8" t="s">
+        <v>127</v>
+      </c>
       <c r="Q41" s="8"/>
-      <c r="R41" s="8"/>
-      <c r="S41" s="8"/>
+      <c r="R41" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="S41" s="8">
+        <v>3</v>
+      </c>
       <c r="T41" s="8"/>
       <c r="U41" s="8"/>
-      <c r="V41" s="8"/>
-      <c r="W41" s="8"/>
-      <c r="X41" s="8"/>
+      <c r="V41" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="W41" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="X41" s="8" t="s">
+        <v>117</v>
+      </c>
       <c r="Y41" s="8"/>
       <c r="Z41" s="8"/>
       <c r="AA41" s="8"/>
-      <c r="AB41" s="8"/>
-      <c r="AC41" s="8"/>
-      <c r="AD41" s="8"/>
-      <c r="AE41" s="8"/>
-      <c r="AF41" s="8"/>
+      <c r="AB41" s="10">
+        <v>39508.389918981484</v>
+      </c>
+      <c r="AC41" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD41" s="10">
+        <v>39508.389918981484</v>
+      </c>
+      <c r="AE41" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF41" s="10">
+        <v>44228.014918981484</v>
+      </c>
     </row>
     <row r="42" spans="2:32" ht="24">
       <c r="B42" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="8"/>
+        <v>84</v>
+      </c>
+      <c r="C42" s="8">
+        <v>1</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="G42" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="I42" s="8">
+        <v>201901</v>
+      </c>
+      <c r="J42" s="8">
+        <v>202005</v>
+      </c>
+      <c r="K42" s="8">
+        <v>17</v>
+      </c>
       <c r="L42" s="8"/>
-      <c r="M42" s="8"/>
-      <c r="N42" s="8"/>
-      <c r="O42" s="8"/>
-      <c r="P42" s="8"/>
+      <c r="M42" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="N42" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="O42" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="P42" s="8" t="s">
+        <v>127</v>
+      </c>
       <c r="Q42" s="8"/>
-      <c r="R42" s="8"/>
-      <c r="S42" s="8"/>
+      <c r="R42" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="S42" s="8">
+        <v>3</v>
+      </c>
       <c r="T42" s="8"/>
       <c r="U42" s="8"/>
-      <c r="V42" s="8"/>
-      <c r="W42" s="8"/>
-      <c r="X42" s="8"/>
+      <c r="V42" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="W42" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="X42" s="8" t="s">
+        <v>117</v>
+      </c>
       <c r="Y42" s="8"/>
       <c r="Z42" s="8"/>
       <c r="AA42" s="8"/>
-      <c r="AB42" s="8"/>
-      <c r="AC42" s="8"/>
-      <c r="AD42" s="8"/>
-      <c r="AE42" s="8"/>
-      <c r="AF42" s="8"/>
+      <c r="AB42" s="10">
+        <v>39508.389918981484</v>
+      </c>
+      <c r="AC42" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD42" s="10">
+        <v>39508.389918981484</v>
+      </c>
+      <c r="AE42" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF42" s="10">
+        <v>44228.014918981484</v>
+      </c>
     </row>
     <row r="43" spans="2:32" ht="24">
-      <c r="B43" s="7" t="s">
-        <v>71</v>
-      </c>
+      <c r="B43" s="7"/>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -5580,11 +5853,11 @@
       <c r="Y43" s="8"/>
       <c r="Z43" s="8"/>
       <c r="AA43" s="8"/>
-      <c r="AB43" s="8"/>
-      <c r="AC43" s="8"/>
-      <c r="AD43" s="8"/>
-      <c r="AE43" s="8"/>
-      <c r="AF43" s="8"/>
+      <c r="AB43" s="19"/>
+      <c r="AC43" s="19"/>
+      <c r="AD43" s="19"/>
+      <c r="AE43" s="19"/>
+      <c r="AF43" s="19"/>
     </row>
     <row r="44" spans="2:32" ht="24">
       <c r="B44" s="7"/>
@@ -5613,11 +5886,11 @@
       <c r="Y44" s="8"/>
       <c r="Z44" s="8"/>
       <c r="AA44" s="8"/>
-      <c r="AB44" s="8"/>
-      <c r="AC44" s="8"/>
-      <c r="AD44" s="8"/>
-      <c r="AE44" s="8"/>
-      <c r="AF44" s="8"/>
+      <c r="AB44" s="19"/>
+      <c r="AC44" s="19"/>
+      <c r="AD44" s="19"/>
+      <c r="AE44" s="19"/>
+      <c r="AF44" s="19"/>
     </row>
     <row r="45" spans="2:32" ht="24">
       <c r="B45" s="7"/>
@@ -5646,11 +5919,11 @@
       <c r="Y45" s="8"/>
       <c r="Z45" s="8"/>
       <c r="AA45" s="8"/>
-      <c r="AB45" s="8"/>
-      <c r="AC45" s="8"/>
-      <c r="AD45" s="8"/>
-      <c r="AE45" s="8"/>
-      <c r="AF45" s="8"/>
+      <c r="AB45" s="19"/>
+      <c r="AC45" s="19"/>
+      <c r="AD45" s="19"/>
+      <c r="AE45" s="19"/>
+      <c r="AF45" s="19"/>
     </row>
     <row r="46" spans="2:32" ht="24">
       <c r="B46" s="1"/>
